--- a/doc/データベース更新手順.xlsx
+++ b/doc/データベース更新手順.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.shimaoka\Documents\android\008_postApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.shimaoka\Documents\android\008_postApp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33529AA9-B2AA-4470-B04E-9388B79A7B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82D3FF9-D7D1-4DFD-B9E0-FEB19256D248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>http://zipcloud.ibsnet.co.jp/#EditSpec</t>
     <phoneticPr fontId="1"/>
@@ -66,39 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>しかし、このファイルは、Shift-JISの文字コードが使用されているためこのままDBにインポートすると</t>
-    <rPh sb="22" eb="24">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字化けしてしまう。</t>
-    <rPh sb="0" eb="3">
-      <t>モジバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そこで、以下のツールにて、文字コードをUTF-8に変換したCSVファイルを出力する</t>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SQLiteDatabaseBrowserPortable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -124,40 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>New Databaseを押下</t>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名を入力し、OK押下</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル項目は、キャンセル</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Table from CSVを選ぶ</t>
-    <rPh sb="15" eb="16">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EncordingにShift-JISを入力</t>
     <rPh sb="20" eb="22">
       <t>ニュウリョク</t>
@@ -165,32 +98,172 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エクスポートを選ぶ</t>
+    <t>このファイルは、Shift-JISの文字コードが使用されているためこのままでは文字化けしてしまう。</t>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のツールにて、文字コードをUTF-8に変換したDBを作成する</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①New Databaseを押下</t>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②ファイル名[Data.db]を入力し、OK押下</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③テーブル項目画面では、キャンセルを押下</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④Table from CSVを選ぶ</t>
+    <rPh sb="16" eb="17">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートするcsvデータを選ぶ</t>
+    <rPh sb="14" eb="15">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートするデータ一覧</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートされた状態のDB</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名を選択した状態で見日クリックModify Tableを選択</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Table名を”Address”に、Typeをすべて”TEXT”に変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBファイルを閉じ、AndroidStadioのassetsにコピー</t>
     <rPh sb="7" eb="8">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エクスポートで出力されたファイルを、AndroidStadioのassetsにコピー</t>
-    <rPh sb="7" eb="9">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリから更新ボタンを押下し、5分ほど待つ。</t>
-    <rPh sb="5" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回起動時は、そのまま起動（５～10秒、処理中に画面がなる）</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新時は、アプリの更新ボタンを押す</t>
+    <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>マ</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -278,13 +351,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>84600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -321,15 +394,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>132219</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>161101</xdr:rowOff>
+      <xdr:colOff>151269</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>208726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -352,7 +425,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="12144375"/>
+          <a:off x="704850" y="11953875"/>
           <a:ext cx="9047619" cy="6590476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -366,13 +439,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>65552</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>8899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -410,14 +483,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>46676</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>56250</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>170550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -440,7 +513,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="24765000"/>
+          <a:off x="685800" y="24641175"/>
           <a:ext cx="7590476" cy="7200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -454,13 +527,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>665807</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>94350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -498,13 +571,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>245905</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>189464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -542,13 +615,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>455428</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>37798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -584,16 +657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>475439</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>75421</xdr:rowOff>
+      <xdr:colOff>46814</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>123046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -616,7 +689,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="53616225"/>
+          <a:off x="419100" y="52949475"/>
           <a:ext cx="6485714" cy="6228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -629,15 +702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -652,7 +725,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="54911625"/>
+          <a:off x="2962275" y="54321075"/>
           <a:ext cx="2085975" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -705,25 +778,355 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>332526</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>180419</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2738A0EE-D5C4-4F5B-8D39-14D16A88CD50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="14535150"/>
+          <a:ext cx="2228850" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11478CC4-02B0-4039-B164-DB7A8728F64F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="33899475"/>
+          <a:ext cx="4076700" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DE5F44-FD4E-457F-AFA8-8C21FCD2C979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="51025425"/>
+          <a:ext cx="1533525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40F0D65-F1E5-4CEA-BBFF-9265085B1F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="53520975"/>
+          <a:ext cx="2228850" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52E8723-ED08-4B6F-B5CB-9E54CFD50C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="54768750"/>
+          <a:ext cx="2228850" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532300</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>37700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
+        <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360DF272-F7DA-4647-84D0-18547B375662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FE4745-FAF3-4D56-B6D3-838DA72E209A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -739,52 +1142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="60979050"/>
-          <a:ext cx="6790476" cy="4447619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>494895</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>170744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC267431-8ECB-491A-8C67-A6DB03B54E81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="66198750"/>
-          <a:ext cx="3238095" cy="5647619"/>
+          <a:off x="647700" y="59940825"/>
+          <a:ext cx="8800000" cy="3200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1059,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:B304"/>
+  <dimension ref="B3:B268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1087,85 +1446,105 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277" s="1" t="s">
+    <row r="170" spans="2:2">
+      <c r="B170" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="2:2">
-      <c r="B304" s="1" t="s">
+    <row r="209" spans="2:2">
+      <c r="B209" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" location="EditSpec" xr:uid="{08DBCECA-AD95-4051-9FC8-CDDFB65EC7CB}"/>
-    <hyperlink ref="B12" r:id="rId2" display="http://sqlitebrowser.org/" xr:uid="{BBB39E51-EC5D-47A5-9971-AF894212259B}"/>
-    <hyperlink ref="B13" r:id="rId3" display="https://tamomoru.com/dev_blog/article/39" xr:uid="{467A409C-22A5-4C38-A149-EED27CB8B76E}"/>
+    <hyperlink ref="B11" r:id="rId2" display="http://sqlitebrowser.org/" xr:uid="{BBB39E51-EC5D-47A5-9971-AF894212259B}"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://tamomoru.com/dev_blog/article/39" xr:uid="{467A409C-22A5-4C38-A149-EED27CB8B76E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
